--- a/output/fit_clients/fit_round_147.xlsx
+++ b/output/fit_clients/fit_round_147.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1741112229.172847</v>
+        <v>1614920074.104789</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1055868594777322</v>
+        <v>0.07596412995483388</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02953626543185091</v>
+        <v>0.041752657463591</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>870556075.3616288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2422141885.502739</v>
+        <v>1978780352.274663</v>
       </c>
       <c r="F3" t="n">
-        <v>0.126536794599333</v>
+        <v>0.1178943977201506</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04899330822495932</v>
+        <v>0.03547460975907941</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1211071048.146015</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4056083597.207129</v>
+        <v>3788780996.291399</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1129663119519189</v>
+        <v>0.1230199044144662</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03548851501562188</v>
+        <v>0.02970857291405704</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>53</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2028041816.715813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2911849588.927924</v>
+        <v>2750589973.156814</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1061141209024171</v>
+        <v>0.09296625030182749</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03871654328853089</v>
+        <v>0.03730402994437056</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>57</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1455924870.078114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2013490055.377118</v>
+        <v>1781477853.471872</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1433287102562377</v>
+        <v>0.1460011090340483</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03944494742270001</v>
+        <v>0.03802908519693798</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1006745055.787806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3144142959.614617</v>
+        <v>2693666075.672605</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07986853767658987</v>
+        <v>0.07172372930788186</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04732504097814601</v>
+        <v>0.04334904891557188</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>42</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1572071430.764365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2667688623.897057</v>
+        <v>3860460140.975314</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2143385581532027</v>
+        <v>0.1864014437145423</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03176384340731139</v>
+        <v>0.02744670686036529</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>47</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1333844335.455643</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1720793093.939645</v>
+        <v>2134923364.637793</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1210578097937572</v>
+        <v>0.1832987764607086</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03671753163274991</v>
+        <v>0.03147372601536725</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>860396612.2885009</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5207752228.926419</v>
+        <v>5815105667.050867</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1368930287178978</v>
+        <v>0.17880716832649</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05326495408425753</v>
+        <v>0.03887049525379548</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>62</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2603876229.814621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2846008167.866725</v>
+        <v>3396743897.709065</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1835268210013615</v>
+        <v>0.1551752646402069</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04250533667940409</v>
+        <v>0.03466712233648522</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>61</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1423004016.071644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3053118474.292542</v>
+        <v>2042373748.79836</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1593716455181256</v>
+        <v>0.1339495467507901</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0516897179100467</v>
+        <v>0.0472411925928053</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>50</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1526559259.97992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4431132532.322635</v>
+        <v>4511529539.510175</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06333815825868008</v>
+        <v>0.0661384768172735</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03097763364145171</v>
+        <v>0.02566247445720479</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>50</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2215566299.156865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3193110953.344153</v>
+        <v>3683479974.774203</v>
       </c>
       <c r="F14" t="n">
-        <v>0.142570234435207</v>
+        <v>0.1740950412933786</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02960459889015723</v>
+        <v>0.03377218273541644</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1596555497.097038</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1762815918.219318</v>
+        <v>1791057348.587073</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0914140566595758</v>
+        <v>0.0691162048383413</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03425135873198804</v>
+        <v>0.03955268081216157</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>881408104.1557404</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2266683325.446431</v>
+        <v>2792039923.625378</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07845751903358911</v>
+        <v>0.07405522593043636</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03570526142000374</v>
+        <v>0.03834002880211125</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1133341714.345112</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4066835966.222101</v>
+        <v>4863116830.140877</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1115369144668608</v>
+        <v>0.1609927174925189</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03699653478591743</v>
+        <v>0.04183946881877278</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>43</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2033418014.358528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3845084940.971603</v>
+        <v>2716061121.073748</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1853077010759775</v>
+        <v>0.1723506519765099</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02785255853169279</v>
+        <v>0.02081270516357434</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>48</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1922542439.575161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1116003494.070003</v>
+        <v>1051819313.946491</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1498998148288047</v>
+        <v>0.1521593303869639</v>
       </c>
       <c r="G19" t="n">
-        <v>0.025652882484322</v>
+        <v>0.02588023376586236</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>558001804.4610218</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1912185564.947807</v>
+        <v>1813186901.596958</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1483414112458626</v>
+        <v>0.1435128333221431</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02579691740970865</v>
+        <v>0.02411380533182027</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>23</v>
-      </c>
-      <c r="J20" t="n">
-        <v>956092818.1436135</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1987245925.251487</v>
+        <v>2498922634.508588</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09431755986005641</v>
+        <v>0.06976573011599448</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03554846047616883</v>
+        <v>0.03163677911301131</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>993622999.7760744</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3961029868.907507</v>
+        <v>2471456287.859075</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1126026221525045</v>
+        <v>0.09176918456938746</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04028595075864522</v>
+        <v>0.05250748956721822</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>41</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1980514938.391977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1271861238.315033</v>
+        <v>1433911275.361374</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1717774527869993</v>
+        <v>0.1171457390225067</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0399540940107794</v>
+        <v>0.03374363901371829</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>635930643.4943414</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4094909636.380227</v>
+        <v>2625227346.479416</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1189511965195054</v>
+        <v>0.1025790011716401</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03230962492173181</v>
+        <v>0.03141654913636954</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>43</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2047454779.750556</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1022382568.052416</v>
+        <v>1125927000.782726</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07724334773110077</v>
+        <v>0.1167787643582686</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02359310801934448</v>
+        <v>0.03052831791679027</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>511191342.8198276</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>900605620.6262079</v>
+        <v>1387514632.676913</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08382046947222488</v>
+        <v>0.09360549596071256</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02931306395146944</v>
+        <v>0.03241633124848618</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>450302758.0720605</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4702807477.206069</v>
+        <v>3742114917.704222</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1218716087125514</v>
+        <v>0.1012557727993854</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02050051570213082</v>
+        <v>0.02379279474098094</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2351403713.807892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3214726464.202954</v>
+        <v>3402640810.422027</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09365468473339217</v>
+        <v>0.1441086213360657</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04654333926314254</v>
+        <v>0.03215276814998067</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>47</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1607363261.927627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4329422518.740272</v>
+        <v>4014358078.19551</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1252137259160161</v>
+        <v>0.0949247336901462</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03351703686858275</v>
+        <v>0.04495777028922578</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>66</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2164711253.324071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1596232187.144431</v>
+        <v>1769377666.709373</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09151411517539006</v>
+        <v>0.1269039832892412</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02817182293726123</v>
+        <v>0.03605316386637923</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>798116084.9964526</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1165205848.430869</v>
+        <v>1402999311.627102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.100425635011664</v>
+        <v>0.08515817844606757</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03192812634736512</v>
+        <v>0.05095666512796784</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>582602883.8338403</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1883981746.387242</v>
+        <v>1719331106.011462</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07893027719452538</v>
+        <v>0.1054555061659152</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0253424230838526</v>
+        <v>0.02962713551749427</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>941991021.0451441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3021027470.495507</v>
+        <v>3032174506.479948</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1784051445269339</v>
+        <v>0.1426470171309359</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0546777508515766</v>
+        <v>0.04137208921743549</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>44</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1510513729.055896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1307823255.836773</v>
+        <v>1505169737.0277</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08041397340567323</v>
+        <v>0.08906898908297414</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02263709582643485</v>
+        <v>0.02522619996755401</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>653911615.2957433</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>925633448.6048131</v>
+        <v>1256879414.833162</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08364177773935748</v>
+        <v>0.1155869202017648</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03891861521951128</v>
+        <v>0.02824937214348314</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>462816759.15518</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2753263632.58106</v>
+        <v>2028811920.671268</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1266040585010935</v>
+        <v>0.1468850539166363</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02316858228313392</v>
+        <v>0.02471386119825465</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>37</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1376631817.944588</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2838617676.271077</v>
+        <v>2539393728.302971</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06827805563153215</v>
+        <v>0.1076259330045385</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03971119963132373</v>
+        <v>0.03622612455276612</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>40</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1419308980.74583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1651603756.548108</v>
+        <v>1687819903.363035</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1208922731316953</v>
+        <v>0.09532374169823064</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03795725833533982</v>
+        <v>0.02715615623124743</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>825801906.0755389</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1677664279.499844</v>
+        <v>2167425888.285076</v>
       </c>
       <c r="F39" t="n">
-        <v>0.157683633521268</v>
+        <v>0.1331829810435307</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02226042425942524</v>
+        <v>0.02266431470979232</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>838832183.1755639</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1396963714.878574</v>
+        <v>1324892233.891301</v>
       </c>
       <c r="F40" t="n">
-        <v>0.103737903354023</v>
+        <v>0.1117936217563615</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05174706190863617</v>
+        <v>0.04935402838935991</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>698481849.3983498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1959549464.008002</v>
+        <v>2336561781.314073</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1101119121511241</v>
+        <v>0.1024293686022092</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04173638355799922</v>
+        <v>0.03395932949600898</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>36</v>
-      </c>
-      <c r="J41" t="n">
-        <v>979774810.1184375</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2657567043.046181</v>
+        <v>2684983601.684666</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1151092206584619</v>
+        <v>0.1019940299767363</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03670834986733462</v>
+        <v>0.03241590681431659</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1328783458.363881</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2714187475.020179</v>
+        <v>2816178886.460996</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1432510055195121</v>
+        <v>0.154619475542763</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02322009028970052</v>
+        <v>0.02451258491657219</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>49</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1357093764.609523</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1811633807.947559</v>
+        <v>2129883857.495966</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09028697653821804</v>
+        <v>0.09768396193908931</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03354614520391994</v>
+        <v>0.03012120579588583</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>905816972.6915752</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1705232732.109203</v>
+        <v>1852730045.670423</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1284285104510419</v>
+        <v>0.146066606420156</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04489689430030677</v>
+        <v>0.03625218946352524</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>852616327.1620786</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4377535448.824569</v>
+        <v>4154328555.440016</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1371407403630406</v>
+        <v>0.1418176622941777</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05192327856501262</v>
+        <v>0.04314950416163939</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>52</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2188767715.554281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4716990680.684314</v>
+        <v>3923247762.581107</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1559512186319509</v>
+        <v>0.126666270985531</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0538791527236031</v>
+        <v>0.03704830624341328</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>39</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2358495380.04959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4054688835.520247</v>
+        <v>4453643461.351839</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1064227722892286</v>
+        <v>0.07888070807097934</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0378896229685286</v>
+        <v>0.03242060361313556</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2027344448.900399</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1658280474.049886</v>
+        <v>1549911412.626986</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1648110603547878</v>
+        <v>0.1182501985465775</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02796824373269874</v>
+        <v>0.03300588056132814</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>829140244.4082236</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4133722345.094433</v>
+        <v>3103355094.147701</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1491516213219577</v>
+        <v>0.1133250184087939</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05103395923858969</v>
+        <v>0.03803095124685174</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>50</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2066861151.672121</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1369563880.908829</v>
+        <v>1117240484.789927</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1848561019608584</v>
+        <v>0.1324876939262443</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04135844190145905</v>
+        <v>0.03547550563658959</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>684781964.4855942</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4451062974.643702</v>
+        <v>3799614296.207667</v>
       </c>
       <c r="F52" t="n">
-        <v>0.092053406618105</v>
+        <v>0.1002583382340467</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04473566303722829</v>
+        <v>0.04511571118184737</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>61</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2225531517.219418</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3752102973.131742</v>
+        <v>3325251081.653976</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1435805947478331</v>
+        <v>0.2020722113144188</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02154309857975627</v>
+        <v>0.02830345225879391</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>42</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1876051467.036333</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3375409214.751746</v>
+        <v>4751680227.102869</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1473644241030075</v>
+        <v>0.1596431667809228</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03763389093958823</v>
+        <v>0.0453069906991713</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1687704622.372517</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4786353202.754658</v>
+        <v>4716487258.130148</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1877097018455626</v>
+        <v>0.1509459094788523</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02900613339053444</v>
+        <v>0.02715686990985468</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>38</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2393176610.976367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1788193606.34551</v>
+        <v>1781248223.484811</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1470377627815771</v>
+        <v>0.1533386644199795</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05705833996673602</v>
+        <v>0.04021414028604871</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>894096802.6635462</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2951606781.720722</v>
+        <v>4020123197.775092</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1641236632315733</v>
+        <v>0.1223705422453151</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02686326607059218</v>
+        <v>0.02355983348049061</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>47</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1475803391.158386</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1477938862.537056</v>
+        <v>1350638228.197282</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1750849181803244</v>
+        <v>0.1233556440361598</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02882688474899946</v>
+        <v>0.03193532319190984</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>738969464.3782444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4304907521.513586</v>
+        <v>4345060321.907948</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1194260874697964</v>
+        <v>0.1223919781040463</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04118165988660179</v>
+        <v>0.04015276741798802</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2152453721.96509</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3636991289.213859</v>
+        <v>2653089195.215133</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2025121521726508</v>
+        <v>0.173899810532723</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03174066147354855</v>
+        <v>0.02123329471531965</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>46</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1818495781.733501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2259978815.318051</v>
+        <v>2869568350.077068</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1363067933812669</v>
+        <v>0.1471383321496682</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02014644291311109</v>
+        <v>0.02658429402389259</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>54</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1129989457.869134</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1566048807.226866</v>
+        <v>1305697428.758406</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1242131743060512</v>
+        <v>0.158180509960037</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04207962213783323</v>
+        <v>0.03149608000606887</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>783024396.5644242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5332861738.789827</v>
+        <v>3824548105.11633</v>
       </c>
       <c r="F63" t="n">
-        <v>0.104393906679578</v>
+        <v>0.1010146215810249</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03350380980741696</v>
+        <v>0.04374056180636936</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>42</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2666430872.263445</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3419582158.427866</v>
+        <v>4498766506.622266</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1846963448717747</v>
+        <v>0.143177547460893</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03361771000835084</v>
+        <v>0.02628854400017721</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>46</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1709791074.207925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3859738938.120673</v>
+        <v>3767978582.297864</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1255063792228661</v>
+        <v>0.1097405328500465</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02281321603621606</v>
+        <v>0.02702845657674885</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>53</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1929869495.946454</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4884364191.419348</v>
+        <v>5373622511.707643</v>
       </c>
       <c r="F66" t="n">
-        <v>0.132721252451514</v>
+        <v>0.1612339011350395</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04410150812898652</v>
+        <v>0.04643770422595907</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>43</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2442182116.636901</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3198155703.799132</v>
+        <v>3180817638.039108</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07289421371413971</v>
+        <v>0.06230864177593875</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04220529814916255</v>
+        <v>0.03343856259318437</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>47</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1599077853.357372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5832103453.827571</v>
+        <v>4426221483.263082</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1015556294160728</v>
+        <v>0.1540886580901721</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04789099590377515</v>
+        <v>0.03431511658499654</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>47</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2916051833.678153</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2432681631.324423</v>
+        <v>2296068835.720918</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1700571798116444</v>
+        <v>0.145156081909244</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03655816351698949</v>
+        <v>0.05004514335495787</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1216340876.496988</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3266763128.773586</v>
+        <v>2306656751.194417</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0821120716552014</v>
+        <v>0.08998759577849612</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03021367988919531</v>
+        <v>0.04655493855403048</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>42</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1633381558.673999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4704800796.987955</v>
+        <v>4394502155.509704</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1377604116861806</v>
+        <v>0.1510247307661693</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03314608797651204</v>
+        <v>0.02536523695545216</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>54</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2352400482.121493</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1760149443.296551</v>
+        <v>1558449999.533589</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0817303068783812</v>
+        <v>0.09380789519861032</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04522705380070771</v>
+        <v>0.0532928653469273</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>880074706.6346948</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3326585443.436163</v>
+        <v>2198120356.255263</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1096344719299558</v>
+        <v>0.07958811725523071</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03753381326275927</v>
+        <v>0.04908008835423024</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>56</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1663292687.768419</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2634297458.178967</v>
+        <v>3652137017.640101</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1239019325055936</v>
+        <v>0.1784684470423484</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02170808048794906</v>
+        <v>0.02964096471846443</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>51</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1317148826.081399</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2205958778.677114</v>
+        <v>1703774279.019318</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1452312099058615</v>
+        <v>0.1397209133134268</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0288246409159871</v>
+        <v>0.02696511718770983</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1102979334.144531</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3240718549.935327</v>
+        <v>4272289379.101659</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07586058628473086</v>
+        <v>0.08821845233345059</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03133463019826842</v>
+        <v>0.02316165747453142</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>33</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1620359227.770734</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1934534153.636621</v>
+        <v>1927650253.093102</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1820726863794314</v>
+        <v>0.1535786627826302</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02651123160694329</v>
+        <v>0.02579833944612075</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>967267128.6083994</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4177606635.409923</v>
+        <v>4155244864.813561</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09971340933127358</v>
+        <v>0.1106726451683112</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03916905119130176</v>
+        <v>0.05340995361310956</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>52</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2088803270.681098</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1574954076.488644</v>
+        <v>1563148355.494194</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1570324372783558</v>
+        <v>0.1199407427684367</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03644472720751641</v>
+        <v>0.03697848914130512</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>787477085.5330787</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5373574365.387943</v>
+        <v>4689040902.224795</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0934955847615425</v>
+        <v>0.0933863366425499</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03259198325728623</v>
+        <v>0.02518190541526167</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>31</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2686787250.42868</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4438424010.710371</v>
+        <v>4141000607.56258</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1028578087192586</v>
+        <v>0.1276275266725205</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03138329436735157</v>
+        <v>0.02135795229395992</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2219211984.815859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5088591127.385415</v>
+        <v>3639518566.635857</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1955446026002374</v>
+        <v>0.1596489832113422</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02536117646074445</v>
+        <v>0.02298415245864991</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2544295542.65304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2221717188.618364</v>
+        <v>2333647133.914241</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09715517466124167</v>
+        <v>0.1296162025850092</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03249650379601836</v>
+        <v>0.03294190633281397</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1110858607.215788</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2038457466.55396</v>
+        <v>1977508846.99042</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1175758298720672</v>
+        <v>0.09000983792068545</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04499356214676201</v>
+        <v>0.03498356793944607</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1019228732.642311</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2832625425.601643</v>
+        <v>3133242246.048522</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1685857695442058</v>
+        <v>0.1253524858207474</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0456504657966481</v>
+        <v>0.04162725353250828</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>55</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1416312754.424197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2515360530.937134</v>
+        <v>1715304095.628914</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1512789394163158</v>
+        <v>0.1563793109605215</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0265982050946532</v>
+        <v>0.01953003901862729</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1257680364.72748</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1094090972.114916</v>
+        <v>1002794789.394145</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1253855382488598</v>
+        <v>0.1296817518774947</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04435739230966852</v>
+        <v>0.02920262841740715</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>547045514.455816</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3735456372.646488</v>
+        <v>3727034760.813663</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1763591141437929</v>
+        <v>0.1530107184253119</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02938793762426477</v>
+        <v>0.03341750739540918</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>58</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1867728289.392731</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3193207480.101406</v>
+        <v>2950459537.233731</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1120657438568166</v>
+        <v>0.1504510919600165</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03134448700524411</v>
+        <v>0.02561321049281919</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>52</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1596603763.970956</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1822858996.670595</v>
+        <v>1727714103.094475</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1091134581281621</v>
+        <v>0.1230589492996206</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0375703070177146</v>
+        <v>0.05010045833849251</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>911429536.0944113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1550673562.519402</v>
+        <v>1879076587.846173</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1448287144522475</v>
+        <v>0.1759984404020332</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06018645581841967</v>
+        <v>0.04782418611782265</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>775336813.3841529</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2592139221.146723</v>
+        <v>1879743503.044142</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08016838178093895</v>
+        <v>0.07337012583151305</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03476835683028204</v>
+        <v>0.04255712301603933</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>33</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1296069601.448492</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3059280808.009003</v>
+        <v>4431908833.49179</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09953240899795181</v>
+        <v>0.08575420400477364</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05397194231829328</v>
+        <v>0.04783191058910827</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1529640465.390952</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2064277096.503092</v>
+        <v>2411834721.717421</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1553965760178037</v>
+        <v>0.1547652609540344</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02883896174173114</v>
+        <v>0.03174495855086894</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1032138554.916682</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3111275488.224065</v>
+        <v>2663913272.41619</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08419364729571573</v>
+        <v>0.1165438685783646</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0514919105180996</v>
+        <v>0.04240285691292799</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>35</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1555637735.694099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2278116890.544077</v>
+        <v>1799748942.547662</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1158634809897284</v>
+        <v>0.08865284492526394</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03292564263802828</v>
+        <v>0.02856950909296605</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1139058402.502201</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4932682007.00899</v>
+        <v>4671729441.02065</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1190188676088529</v>
+        <v>0.1075611383532491</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01972005238937211</v>
+        <v>0.02523626565560973</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>47</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2466341134.848099</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3873214499.134476</v>
+        <v>3908845459.15028</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09953189027600547</v>
+        <v>0.1249921580018758</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03262575570653684</v>
+        <v>0.0204958426708333</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>39</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1936607293.453088</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3373705697.850318</v>
+        <v>2841103677.200326</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1168989606559368</v>
+        <v>0.1119560127920113</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03501493913126937</v>
+        <v>0.03474678225939687</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>46</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1686852861.954063</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3732956440.814264</v>
+        <v>3369565462.129882</v>
       </c>
       <c r="F100" t="n">
-        <v>0.139717081895998</v>
+        <v>0.1684186444512268</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02218554259740483</v>
+        <v>0.02629258256898729</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>45</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1866478269.729497</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3543252812.285078</v>
+        <v>3040400515.755105</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1786627643542842</v>
+        <v>0.2134459559289253</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0373300335243345</v>
+        <v>0.05842389475395018</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>60</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1771626566.929674</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_147.xlsx
+++ b/output/fit_clients/fit_round_147.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1614920074.104789</v>
+        <v>1638640436.989522</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07596412995483388</v>
+        <v>0.09255685750929964</v>
       </c>
       <c r="G2" t="n">
-        <v>0.041752657463591</v>
+        <v>0.04009957659626263</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1978780352.274663</v>
+        <v>2139852507.49206</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1178943977201506</v>
+        <v>0.1606063689718809</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03547460975907941</v>
+        <v>0.03146820508597747</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3788780996.291399</v>
+        <v>4953123142.252055</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1230199044144662</v>
+        <v>0.1418586691035451</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02970857291405704</v>
+        <v>0.02579033739288971</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2750589973.156814</v>
+        <v>3458002162.258438</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09296625030182749</v>
+        <v>0.08876939028577577</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03730402994437056</v>
+        <v>0.04508725881649756</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1781477853.471872</v>
+        <v>2529942004.001292</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1460011090340483</v>
+        <v>0.1305722834956404</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03802908519693798</v>
+        <v>0.05173630660936684</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2693666075.672605</v>
+        <v>2795070929.351889</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07172372930788186</v>
+        <v>0.09586285136839902</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04334904891557188</v>
+        <v>0.03708447741297565</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3860460140.975314</v>
+        <v>3455048257.744309</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1864014437145423</v>
+        <v>0.1377863070895099</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02744670686036529</v>
+        <v>0.02851292466117613</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2134923364.637793</v>
+        <v>1733049556.206532</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1832987764607086</v>
+        <v>0.1919923533914956</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03147372601536725</v>
+        <v>0.02751034843156426</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5815105667.050867</v>
+        <v>4021527683.019392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.17880716832649</v>
+        <v>0.1658284075932026</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03887049525379548</v>
+        <v>0.03437565466041843</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3396743897.709065</v>
+        <v>2600332052.634711</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1551752646402069</v>
+        <v>0.1430331217443004</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03466712233648522</v>
+        <v>0.04560500350444056</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2042373748.79836</v>
+        <v>2926222322.784986</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1339495467507901</v>
+        <v>0.1307902921473697</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0472411925928053</v>
+        <v>0.04352327828655062</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4511529539.510175</v>
+        <v>3956244400.141229</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0661384768172735</v>
+        <v>0.06370282272092015</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02566247445720479</v>
+        <v>0.02620149717802993</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3683479974.774203</v>
+        <v>3154591793.481856</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1740950412933786</v>
+        <v>0.1862321794672714</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03377218273541644</v>
+        <v>0.02886050156709977</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1791057348.587073</v>
+        <v>1676667278.878935</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0691162048383413</v>
+        <v>0.098367542808992</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03955268081216157</v>
+        <v>0.04559196804815018</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2792039923.625378</v>
+        <v>1773912415.303672</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07405522593043636</v>
+        <v>0.1054825836847212</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03834002880211125</v>
+        <v>0.04670556497530366</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4863116830.140877</v>
+        <v>3882456943.050014</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1609927174925189</v>
+        <v>0.1692385501420819</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04183946881877278</v>
+        <v>0.03286121458851672</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2716061121.073748</v>
+        <v>3487531791.361298</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1723506519765099</v>
+        <v>0.162350325110458</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02081270516357434</v>
+        <v>0.02747194060850739</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1051819313.946491</v>
+        <v>903448693.8919126</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1521593303869639</v>
+        <v>0.1393893079316599</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02588023376586236</v>
+        <v>0.02190391025699593</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1813186901.596958</v>
+        <v>2631965154.193843</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1435128333221431</v>
+        <v>0.1287463485807236</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02411380533182027</v>
+        <v>0.03045975792772207</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2498922634.508588</v>
+        <v>2653524430.082951</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06976573011599448</v>
+        <v>0.0640301763661391</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03163677911301131</v>
+        <v>0.04347903225356906</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2471456287.859075</v>
+        <v>3409803522.8775</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09176918456938746</v>
+        <v>0.1418664499923054</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05250748956721822</v>
+        <v>0.05593172821820756</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1433911275.361374</v>
+        <v>1421849135.649501</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1171457390225067</v>
+        <v>0.175307475357033</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03374363901371829</v>
+        <v>0.04436270751231473</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2625227346.479416</v>
+        <v>3789658920.690613</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1025790011716401</v>
+        <v>0.1445963727469056</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03141654913636954</v>
+        <v>0.03587274609801493</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1125927000.782726</v>
+        <v>1182412215.042511</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1167787643582686</v>
+        <v>0.09421742390771574</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03052831791679027</v>
+        <v>0.02399060644578525</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1387514632.676913</v>
+        <v>1277622254.088774</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09360549596071256</v>
+        <v>0.1221188247169104</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03241633124848618</v>
+        <v>0.03389822483164487</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3742114917.704222</v>
+        <v>4690409790.76082</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1012557727993854</v>
+        <v>0.1079846554314541</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02379279474098094</v>
+        <v>0.02134241750367998</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3402640810.422027</v>
+        <v>3835583843.212921</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1441086213360657</v>
+        <v>0.1193740297550652</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03215276814998067</v>
+        <v>0.04322082865197767</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4014358078.19551</v>
+        <v>4889958538.902965</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0949247336901462</v>
+        <v>0.0932539447864547</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04495777028922578</v>
+        <v>0.04302046568027615</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1769377666.709373</v>
+        <v>2079273824.102861</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1269039832892412</v>
+        <v>0.1240687373067855</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03605316386637923</v>
+        <v>0.0333990538618433</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1402999311.627102</v>
+        <v>1349513397.60768</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08515817844606757</v>
+        <v>0.0838141260946258</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05095666512796784</v>
+        <v>0.03639968375798736</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1719331106.011462</v>
+        <v>1306345343.483394</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1054555061659152</v>
+        <v>0.08906887919677528</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02962713551749427</v>
+        <v>0.02541151983134263</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3032174506.479948</v>
+        <v>2414962188.404113</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1426470171309359</v>
+        <v>0.1563047104956857</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04137208921743549</v>
+        <v>0.05344753934838235</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1505169737.0277</v>
+        <v>1094993259.080889</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08906898908297414</v>
+        <v>0.08892022656016027</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02522619996755401</v>
+        <v>0.02323002734697658</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1256879414.833162</v>
+        <v>1102436890.035686</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1155869202017648</v>
+        <v>0.09452838643700529</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02824937214348314</v>
+        <v>0.04464720254795428</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2028811920.671268</v>
+        <v>2343438438.682959</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1468850539166363</v>
+        <v>0.1256556420438317</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02471386119825465</v>
+        <v>0.02784347243070375</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2539393728.302971</v>
+        <v>2669821126.890374</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1076259330045385</v>
+        <v>0.1044852435137533</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03622612455276612</v>
+        <v>0.03294283874722253</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1687819903.363035</v>
+        <v>2166362633.113798</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09532374169823064</v>
+        <v>0.0988012017756735</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02715615623124743</v>
+        <v>0.0333697114672323</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2167425888.285076</v>
+        <v>1749711389.194501</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1331829810435307</v>
+        <v>0.1687327836078665</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02266431470979232</v>
+        <v>0.03021292021693554</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1324892233.891301</v>
+        <v>1580199137.083851</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1117936217563615</v>
+        <v>0.1133411983282542</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04935402838935991</v>
+        <v>0.04386960694848962</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2336561781.314073</v>
+        <v>2821574189.022851</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1024293686022092</v>
+        <v>0.127783996962424</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03395932949600898</v>
+        <v>0.03828272602678845</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2684983601.684666</v>
+        <v>3327738035.337097</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1019940299767363</v>
+        <v>0.119956355556815</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03241590681431659</v>
+        <v>0.03084814836664435</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2816178886.460996</v>
+        <v>2671756180.170121</v>
       </c>
       <c r="F43" t="n">
-        <v>0.154619475542763</v>
+        <v>0.2007790732198999</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02451258491657219</v>
+        <v>0.02273883033327937</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2129883857.495966</v>
+        <v>2328536042.535764</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09768396193908931</v>
+        <v>0.09453402980330088</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03012120579588583</v>
+        <v>0.03523217817313305</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1852730045.670423</v>
+        <v>2400911239.180198</v>
       </c>
       <c r="F45" t="n">
-        <v>0.146066606420156</v>
+        <v>0.1224446933680987</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03625218946352524</v>
+        <v>0.03939550976010903</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4154328555.440016</v>
+        <v>4609302791.533959</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1418176622941777</v>
+        <v>0.1163352208254324</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04314950416163939</v>
+        <v>0.05903224449433313</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3923247762.581107</v>
+        <v>4897271807.275249</v>
       </c>
       <c r="F47" t="n">
-        <v>0.126666270985531</v>
+        <v>0.1501438645805396</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03704830624341328</v>
+        <v>0.05297852114087413</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4453643461.351839</v>
+        <v>3337897259.251215</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07888070807097934</v>
+        <v>0.08612562708141913</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03242060361313556</v>
+        <v>0.03042067474297943</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1549911412.626986</v>
+        <v>1450825724.871202</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1182501985465775</v>
+        <v>0.1715354289521643</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03300588056132814</v>
+        <v>0.04363414638341648</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3103355094.147701</v>
+        <v>3990532892.602853</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1133250184087939</v>
+        <v>0.1267583729094631</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03803095124685174</v>
+        <v>0.03651650871197072</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1117240484.789927</v>
+        <v>1397878328.170052</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1324876939262443</v>
+        <v>0.192171202813052</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03547550563658959</v>
+        <v>0.04380387185848721</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3799614296.207667</v>
+        <v>3666395241.779107</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1002583382340467</v>
+        <v>0.1261054746916979</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04511571118184737</v>
+        <v>0.0557589175423047</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3325251081.653976</v>
+        <v>2539397920.275343</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2020722113144188</v>
+        <v>0.1476027533716998</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02830345225879391</v>
+        <v>0.03369468456715424</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4751680227.102869</v>
+        <v>3535740161.30129</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1596431667809228</v>
+        <v>0.1107481531833386</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0453069906991713</v>
+        <v>0.05281787190771688</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4716487258.130148</v>
+        <v>4443874561.454302</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1509459094788523</v>
+        <v>0.136965322081409</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02715686990985468</v>
+        <v>0.02928771515222768</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1781248223.484811</v>
+        <v>1797712127.584804</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1533386644199795</v>
+        <v>0.1471901259840713</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04021414028604871</v>
+        <v>0.03523507445989792</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4020123197.775092</v>
+        <v>3063475405.625634</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1223705422453151</v>
+        <v>0.1143387771644682</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02355983348049061</v>
+        <v>0.02449062818640296</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1350638228.197282</v>
+        <v>1867726596.834427</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1233556440361598</v>
+        <v>0.137523717176105</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03193532319190984</v>
+        <v>0.03079766571748845</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4345060321.907948</v>
+        <v>4331770591.486403</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1223919781040463</v>
+        <v>0.08726637891063646</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04015276741798802</v>
+        <v>0.03744951144779629</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2653089195.215133</v>
+        <v>3148870474.069139</v>
       </c>
       <c r="F60" t="n">
-        <v>0.173899810532723</v>
+        <v>0.1910652495283168</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02123329471531965</v>
+        <v>0.02515937030301869</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2869568350.077068</v>
+        <v>2532737030.103018</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1471383321496682</v>
+        <v>0.1740481732289461</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02658429402389259</v>
+        <v>0.03122679722491809</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1305697428.758406</v>
+        <v>1389941331.84439</v>
       </c>
       <c r="F62" t="n">
-        <v>0.158180509960037</v>
+        <v>0.1635781745534292</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03149608000606887</v>
+        <v>0.0466611460645141</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3824548105.11633</v>
+        <v>4756990747.056391</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1010146215810249</v>
+        <v>0.1006020935838843</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04374056180636936</v>
+        <v>0.04509013545726766</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4498766506.622266</v>
+        <v>5366000613.36602</v>
       </c>
       <c r="F64" t="n">
-        <v>0.143177547460893</v>
+        <v>0.1629931760174163</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02628854400017721</v>
+        <v>0.02585192063877569</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3767978582.297864</v>
+        <v>4114799585.619975</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1097405328500465</v>
+        <v>0.1213644454272855</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02702845657674885</v>
+        <v>0.02601903561300417</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5373622511.707643</v>
+        <v>4253323642.064099</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1612339011350395</v>
+        <v>0.1343267921530526</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04643770422595907</v>
+        <v>0.03329350478111726</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3180817638.039108</v>
+        <v>3188737598.095311</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06230864177593875</v>
+        <v>0.08111121373879322</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03343856259318437</v>
+        <v>0.03532725261216296</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4426221483.263082</v>
+        <v>5553936603.063483</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1540886580901721</v>
+        <v>0.1274010062217737</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03431511658499654</v>
+        <v>0.03518636880906253</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2296068835.720918</v>
+        <v>1553320461.079839</v>
       </c>
       <c r="F69" t="n">
-        <v>0.145156081909244</v>
+        <v>0.1601326936571563</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05004514335495787</v>
+        <v>0.04915161852105716</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2306656751.194417</v>
+        <v>2938634466.842882</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08998759577849612</v>
+        <v>0.07455209173652108</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04655493855403048</v>
+        <v>0.03476755063933828</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4394502155.509704</v>
+        <v>3632563240.064003</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1510247307661693</v>
+        <v>0.1432075866843426</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02536523695545216</v>
+        <v>0.03158721558324609</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1558449999.533589</v>
+        <v>1893470093.135084</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09380789519861032</v>
+        <v>0.09462852879568737</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0532928653469273</v>
+        <v>0.04522937046061023</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2198120356.255263</v>
+        <v>2808914146.679332</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07958811725523071</v>
+        <v>0.08841318685264105</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04908008835423024</v>
+        <v>0.05111301293511024</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3652137017.640101</v>
+        <v>2420624368.230565</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1784684470423484</v>
+        <v>0.1646830297400975</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02964096471846443</v>
+        <v>0.0261430227521716</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1703774279.019318</v>
+        <v>1877594377.946295</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1397209133134268</v>
+        <v>0.1130146152234056</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02696511718770983</v>
+        <v>0.03440724866086891</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4272289379.101659</v>
+        <v>5024234086.305099</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08821845233345059</v>
+        <v>0.09160772424811267</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02316165747453142</v>
+        <v>0.03410376813283889</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1927650253.093102</v>
+        <v>1432180024.376182</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1535786627826302</v>
+        <v>0.1321152344925344</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02579833944612075</v>
+        <v>0.02475047334137481</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4155244864.813561</v>
+        <v>4433006283.615103</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1106726451683112</v>
+        <v>0.1083011307690547</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05340995361310956</v>
+        <v>0.04307304817158168</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1563148355.494194</v>
+        <v>1221198311.525663</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1199407427684367</v>
+        <v>0.1514073386004778</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03697848914130512</v>
+        <v>0.03246333055176524</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4689040902.224795</v>
+        <v>4875573099.603471</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0933863366425499</v>
+        <v>0.1115521303153588</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02518190541526167</v>
+        <v>0.02477756170299051</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4141000607.56258</v>
+        <v>4249684988.964792</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1276275266725205</v>
+        <v>0.09734485269297524</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02135795229395992</v>
+        <v>0.02260467567105439</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3639518566.635857</v>
+        <v>3915370408.935292</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1596489832113422</v>
+        <v>0.2129280686221478</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02298415245864991</v>
+        <v>0.01929093775300967</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2333647133.914241</v>
+        <v>1973070896.115335</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1296162025850092</v>
+        <v>0.1103626040574932</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03294190633281397</v>
+        <v>0.04336318992924334</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1977508846.99042</v>
+        <v>1819586228.038234</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09000983792068545</v>
+        <v>0.07790677534949215</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03498356793944607</v>
+        <v>0.03380620003488466</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3133242246.048522</v>
+        <v>3552266156.233794</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1253524858207474</v>
+        <v>0.1380675599019734</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04162725353250828</v>
+        <v>0.05270382614644748</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1715304095.628914</v>
+        <v>2188783261.704067</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1563793109605215</v>
+        <v>0.1470500313354</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01953003901862729</v>
+        <v>0.02659456582096396</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1002794789.394145</v>
+        <v>1076883327.237623</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1296817518774947</v>
+        <v>0.1379974861808186</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02920262841740715</v>
+        <v>0.04169320709104431</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3727034760.813663</v>
+        <v>2472487146.40002</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1530107184253119</v>
+        <v>0.1578189225951262</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03341750739540918</v>
+        <v>0.02465379732900476</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2950459537.233731</v>
+        <v>2331382371.768206</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1504510919600165</v>
+        <v>0.1231931915123424</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02561321049281919</v>
+        <v>0.03674587205939862</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1727714103.094475</v>
+        <v>1483903636.955581</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1230589492996206</v>
+        <v>0.1087886841272151</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05010045833849251</v>
+        <v>0.04216281931596433</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1879076587.846173</v>
+        <v>1922283570.319407</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1759984404020332</v>
+        <v>0.1951127021801029</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04782418611782265</v>
+        <v>0.03810018563986455</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1879743503.044142</v>
+        <v>2148367898.160539</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07337012583151305</v>
+        <v>0.07686190876533046</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04255712301603933</v>
+        <v>0.04394991872409613</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4431908833.49179</v>
+        <v>3599095111.783031</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08575420400477364</v>
+        <v>0.1141757358838733</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04783191058910827</v>
+        <v>0.03568984237882785</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2411834721.717421</v>
+        <v>1583342693.93056</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1547652609540344</v>
+        <v>0.1137411916707682</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03174495855086894</v>
+        <v>0.04260855060035289</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2663913272.41619</v>
+        <v>2776987773.637559</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1165438685783646</v>
+        <v>0.1197118606890323</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04240285691292799</v>
+        <v>0.04506344575373326</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1799748942.547662</v>
+        <v>1777064388.939054</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08865284492526394</v>
+        <v>0.1387709277913582</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02856950909296605</v>
+        <v>0.04422061505353069</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4671729441.02065</v>
+        <v>3553760520.822496</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1075611383532491</v>
+        <v>0.1704242411679275</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02523626565560973</v>
+        <v>0.02091971896992513</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3908845459.15028</v>
+        <v>3490412145.689478</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1249921580018758</v>
+        <v>0.09402955704007808</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0204958426708333</v>
+        <v>0.02362279408239368</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2841103677.200326</v>
+        <v>2295714855.65137</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1119560127920113</v>
+        <v>0.1336810412302749</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03474678225939687</v>
+        <v>0.03512010911804619</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3369565462.129882</v>
+        <v>3965060065.206368</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1684186444512268</v>
+        <v>0.1482709564456485</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02629258256898729</v>
+        <v>0.02633855432921597</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3040400515.755105</v>
+        <v>2574806003.173306</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2134459559289253</v>
+        <v>0.2105709842469683</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05842389475395018</v>
+        <v>0.05628948189336028</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_147.xlsx
+++ b/output/fit_clients/fit_round_147.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1638640436.989522</v>
+        <v>2150594423.522337</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09255685750929964</v>
+        <v>0.0807218607073318</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04009957659626263</v>
+        <v>0.04040626138906128</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2139852507.49206</v>
+        <v>1919907838.809522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1606063689718809</v>
+        <v>0.1141471601765015</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03146820508597747</v>
+        <v>0.03351599208431674</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4953123142.252055</v>
+        <v>4672251588.693746</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1418586691035451</v>
+        <v>0.1421663663813728</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02579033739288971</v>
+        <v>0.02403294089029834</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>84</v>
+      </c>
+      <c r="J4" t="n">
+        <v>146</v>
+      </c>
+      <c r="K4" t="n">
+        <v>137.0018847413633</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3458002162.258438</v>
+        <v>3963977574.78733</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08876939028577577</v>
+        <v>0.08864798417259309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04508725881649756</v>
+        <v>0.04587532231121884</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>60</v>
+      </c>
+      <c r="J5" t="n">
+        <v>147</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2529942004.001292</v>
+        <v>2134670593.308519</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1305722834956404</v>
+        <v>0.108781384091099</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05173630660936684</v>
+        <v>0.0551448724942245</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2795070929.351889</v>
+        <v>2446431427.088858</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09586285136839902</v>
+        <v>0.08204130220140281</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03708447741297565</v>
+        <v>0.03927849501423898</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3455048257.744309</v>
+        <v>2575693977.683798</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1377863070895099</v>
+        <v>0.1468206595774567</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02851292466117613</v>
+        <v>0.02948119086727173</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>144</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1733049556.206532</v>
+        <v>1599601685.716696</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1919923533914956</v>
+        <v>0.1650261164313951</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02751034843156426</v>
+        <v>0.03016842367548618</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4021527683.019392</v>
+        <v>5197261859.629008</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1658284075932026</v>
+        <v>0.1952127359294631</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03437565466041843</v>
+        <v>0.04011714326717167</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>135</v>
+      </c>
+      <c r="J10" t="n">
+        <v>147</v>
+      </c>
+      <c r="K10" t="n">
+        <v>152.8148534122564</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2600332052.634711</v>
+        <v>3383022778.485314</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1430331217443004</v>
+        <v>0.1657115636613836</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04560500350444056</v>
+        <v>0.04053859141167632</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>62</v>
+      </c>
+      <c r="J11" t="n">
+        <v>147</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2926222322.784986</v>
+        <v>2074774515.79887</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1307902921473697</v>
+        <v>0.1540652421291133</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04352327828655062</v>
+        <v>0.03416519327663146</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3956244400.141229</v>
+        <v>4304552845.179645</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06370282272092015</v>
+        <v>0.07025572139652178</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02620149717802993</v>
+        <v>0.02169633312427415</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>71</v>
+      </c>
+      <c r="J13" t="n">
+        <v>147</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3154591793.481856</v>
+        <v>2626326850.716202</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1862321794672714</v>
+        <v>0.123713270781335</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02886050156709977</v>
+        <v>0.04414471541058253</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>139</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1676667278.878935</v>
+        <v>1689668570.151026</v>
       </c>
       <c r="F15" t="n">
-        <v>0.098367542808992</v>
+        <v>0.06996686864130741</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04559196804815018</v>
+        <v>0.04800442591727243</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1773912415.303672</v>
+        <v>2741854514.49404</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1054825836847212</v>
+        <v>0.101818197969155</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04670556497530366</v>
+        <v>0.04619468920414818</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3882456943.050014</v>
+        <v>4671942005.453111</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1692385501420819</v>
+        <v>0.1562543657126889</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03286121458851672</v>
+        <v>0.04463854740242598</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>71</v>
+      </c>
+      <c r="J17" t="n">
+        <v>146</v>
+      </c>
+      <c r="K17" t="n">
+        <v>126.2249755766034</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3487531791.361298</v>
+        <v>3217531178.165384</v>
       </c>
       <c r="F18" t="n">
-        <v>0.162350325110458</v>
+        <v>0.178660263056899</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02747194060850739</v>
+        <v>0.0286182376284787</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>37</v>
+      </c>
+      <c r="J18" t="n">
+        <v>143</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>903448693.8919126</v>
+        <v>1257875220.64263</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1393893079316599</v>
+        <v>0.1739766527204735</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02190391025699593</v>
+        <v>0.02077214903023119</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2631965154.193843</v>
+        <v>2263879927.230288</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1287463485807236</v>
+        <v>0.1484600002465047</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03045975792772207</v>
+        <v>0.0200103547466754</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2653524430.082951</v>
+        <v>2095345472.785549</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0640301763661391</v>
+        <v>0.08620070901644807</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04347903225356906</v>
+        <v>0.04240683435769917</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3409803522.8775</v>
+        <v>2731581597.152305</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1418664499923054</v>
+        <v>0.1292301599093576</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05593172821820756</v>
+        <v>0.03677672026814154</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>38</v>
+      </c>
+      <c r="J22" t="n">
+        <v>146</v>
+      </c>
+      <c r="K22" t="n">
+        <v>61.89284431627158</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1421849135.649501</v>
+        <v>1533976276.249928</v>
       </c>
       <c r="F23" t="n">
-        <v>0.175307475357033</v>
+        <v>0.1372926081362978</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04436270751231473</v>
+        <v>0.05179256683769944</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1279,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3789658920.690613</v>
+        <v>2819447886.091269</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1445963727469056</v>
+        <v>0.106016323597214</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03587274609801493</v>
+        <v>0.02700688570284268</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>43</v>
+      </c>
+      <c r="J24" t="n">
+        <v>146</v>
+      </c>
+      <c r="K24" t="n">
+        <v>66.21989633779401</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1182412215.042511</v>
+        <v>1343062280.143966</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09421742390771574</v>
+        <v>0.09375164683043241</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02399060644578525</v>
+        <v>0.02353405990831249</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1277622254.088774</v>
+        <v>1188778771.713951</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1221188247169104</v>
+        <v>0.09187779523192277</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03389822483164487</v>
+        <v>0.02377511417400398</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4690409790.76082</v>
+        <v>3582585727.765727</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1079846554314541</v>
+        <v>0.1528956092757459</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02134241750367998</v>
+        <v>0.02549239438162667</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>58</v>
+      </c>
+      <c r="J27" t="n">
+        <v>146</v>
+      </c>
+      <c r="K27" t="n">
+        <v>98.51175340910034</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3835583843.212921</v>
+        <v>3246082004.087665</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1193740297550652</v>
+        <v>0.1354081462705279</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04322082865197767</v>
+        <v>0.03989778985349574</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4889958538.902965</v>
+        <v>4994229008.13041</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0932539447864547</v>
+        <v>0.1185946319502134</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04302046568027615</v>
+        <v>0.03962071802150818</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>136</v>
+      </c>
+      <c r="J29" t="n">
+        <v>147</v>
+      </c>
+      <c r="K29" t="n">
+        <v>163.4637141099219</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2079273824.102861</v>
+        <v>2319448950.462145</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1240687373067855</v>
+        <v>0.1080837119398552</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0333990538618433</v>
+        <v>0.02678010658283409</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1349513397.60768</v>
+        <v>989720330.7781969</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0838141260946258</v>
+        <v>0.0763208527302274</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03639968375798736</v>
+        <v>0.04154228541430218</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1306345343.483394</v>
+        <v>1501902826.252304</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08906887919677528</v>
+        <v>0.07262140344343612</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02541151983134263</v>
+        <v>0.03721267940263688</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2414962188.404113</v>
+        <v>2376875321.966897</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1563047104956857</v>
+        <v>0.1850089101829161</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05344753934838235</v>
+        <v>0.05256039121767152</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1094993259.080889</v>
+        <v>1552119831.204916</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08892022656016027</v>
+        <v>0.08854143120938117</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02323002734697658</v>
+        <v>0.02508194692277115</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1102436890.035686</v>
+        <v>1090215910.282872</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09452838643700529</v>
+        <v>0.1078054349435524</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04464720254795428</v>
+        <v>0.028176613599919</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2343438438.682959</v>
+        <v>2468483117.455594</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1256556420438317</v>
+        <v>0.1807139263660641</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02784347243070375</v>
+        <v>0.02527364777242463</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2669821126.890374</v>
+        <v>1952645224.209381</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1044852435137533</v>
+        <v>0.1072744497609153</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03294283874722253</v>
+        <v>0.03356974535410163</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2166362633.113798</v>
+        <v>1665808657.145008</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0988012017756735</v>
+        <v>0.09022944373066263</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0333697114672323</v>
+        <v>0.02687166980723392</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1749711389.194501</v>
+        <v>1621964218.217232</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1687327836078665</v>
+        <v>0.1633027324144686</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03021292021693554</v>
+        <v>0.02206354186268845</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1580199137.083851</v>
+        <v>1795304130.038031</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1133411983282542</v>
+        <v>0.1249159545101964</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04386960694848962</v>
+        <v>0.04625787822700273</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2821574189.022851</v>
+        <v>2648378872.757943</v>
       </c>
       <c r="F41" t="n">
-        <v>0.127783996962424</v>
+        <v>0.1523870139962378</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03828272602678845</v>
+        <v>0.03979469400191415</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3327738035.337097</v>
+        <v>2916906466.342093</v>
       </c>
       <c r="F42" t="n">
-        <v>0.119956355556815</v>
+        <v>0.1049969680299751</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03084814836664435</v>
+        <v>0.04537576112377909</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>54</v>
+      </c>
+      <c r="J42" t="n">
+        <v>145</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2671756180.170121</v>
+        <v>2632716717.760441</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2007790732198999</v>
+        <v>0.1665641690546611</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02273883033327937</v>
+        <v>0.01638760910949854</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2328536042.535764</v>
+        <v>1822374082.74344</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09453402980330088</v>
+        <v>0.08751925486117335</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03523217817313305</v>
+        <v>0.03227198669849938</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2400911239.180198</v>
+        <v>1943662735.249631</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1224446933680987</v>
+        <v>0.1619021171805636</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03939550976010903</v>
+        <v>0.0418103493289852</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4609302791.533959</v>
+        <v>3634157793.475519</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1163352208254324</v>
+        <v>0.1141906356654433</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05903224449433313</v>
+        <v>0.04891375945150887</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>83</v>
+      </c>
+      <c r="J46" t="n">
+        <v>146</v>
+      </c>
+      <c r="K46" t="n">
+        <v>121.8826597070162</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4897271807.275249</v>
+        <v>3526368441.440099</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1501438645805396</v>
+        <v>0.1820573255097631</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05297852114087413</v>
+        <v>0.04798462347749506</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>65</v>
+      </c>
+      <c r="J47" t="n">
+        <v>147</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3337897259.251215</v>
+        <v>4621497391.447309</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08612562708141913</v>
+        <v>0.09946577158762565</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03042067474297943</v>
+        <v>0.03864172572008928</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>62</v>
+      </c>
+      <c r="J48" t="n">
+        <v>147</v>
+      </c>
+      <c r="K48" t="n">
+        <v>143.0932250471829</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1450825724.871202</v>
+        <v>1906252287.06782</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1715354289521643</v>
+        <v>0.1858290326238368</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04363414638341648</v>
+        <v>0.03543251354245815</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3990532892.602853</v>
+        <v>3879588206.284061</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1267583729094631</v>
+        <v>0.148925496113052</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03651650871197072</v>
+        <v>0.0377055331026739</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+      <c r="J50" t="n">
+        <v>147</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1397878328.170052</v>
+        <v>1053354834.531346</v>
       </c>
       <c r="F51" t="n">
-        <v>0.192171202813052</v>
+        <v>0.1490011667092768</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04380387185848721</v>
+        <v>0.04233861058859853</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3666395241.779107</v>
+        <v>4579981563.82791</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1261054746916979</v>
+        <v>0.09684848549635167</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0557589175423047</v>
+        <v>0.05188063221233371</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>109</v>
+      </c>
+      <c r="J52" t="n">
+        <v>147</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2539397920.275343</v>
+        <v>2471134192.567509</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1476027533716998</v>
+        <v>0.1812588327062782</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03369468456715424</v>
+        <v>0.02486444950882555</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>18</v>
+      </c>
+      <c r="J53" t="n">
+        <v>144</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3535740161.30129</v>
+        <v>3145493805.107454</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1107481531833386</v>
+        <v>0.104836768421282</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05281787190771688</v>
+        <v>0.05002485227042602</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>69</v>
+      </c>
+      <c r="J54" t="n">
+        <v>146</v>
+      </c>
+      <c r="K54" t="n">
+        <v>92.43787224166212</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4443874561.454302</v>
+        <v>3989393405.298213</v>
       </c>
       <c r="F55" t="n">
-        <v>0.136965322081409</v>
+        <v>0.1979322697170721</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02928771515222768</v>
+        <v>0.02303432176655413</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>67</v>
+      </c>
+      <c r="J55" t="n">
+        <v>147</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1797712127.584804</v>
+        <v>1835715948.011436</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1471901259840713</v>
+        <v>0.1649077981331941</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03523507445989792</v>
+        <v>0.05037174776126361</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3063475405.625634</v>
+        <v>3938954678.108721</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1143387771644682</v>
+        <v>0.1354964395072903</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02449062818640296</v>
+        <v>0.02595486651212774</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>59</v>
+      </c>
+      <c r="J57" t="n">
+        <v>147</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1867726596.834427</v>
+        <v>1537850341.269996</v>
       </c>
       <c r="F58" t="n">
-        <v>0.137523717176105</v>
+        <v>0.1560742616141942</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03079766571748845</v>
+        <v>0.02805785809712298</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4331770591.486403</v>
+        <v>5077606412.728283</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08726637891063646</v>
+        <v>0.1178980468632698</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03744951144779629</v>
+        <v>0.04378688510576011</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>71</v>
+      </c>
+      <c r="J59" t="n">
+        <v>147</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3148870474.069139</v>
+        <v>2962784619.570027</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1910652495283168</v>
+        <v>0.1249930171955536</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02515937030301869</v>
+        <v>0.02311365434058347</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>22</v>
+      </c>
+      <c r="J60" t="n">
+        <v>137</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,22 +2580,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2532737030.103018</v>
+        <v>2842896228.125315</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1740481732289461</v>
+        <v>0.1787491239132148</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03122679722491809</v>
+        <v>0.02649888048353934</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>146</v>
+      </c>
+      <c r="K61" t="n">
+        <v>79.4779856082956</v>
       </c>
     </row>
     <row r="62">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1389941331.84439</v>
+        <v>1401914298.637913</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1635781745534292</v>
+        <v>0.1560985341467424</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0466611460645141</v>
+        <v>0.03586682546852991</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4756990747.056391</v>
+        <v>5357618840.650099</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1006020935838843</v>
+        <v>0.08487472085209941</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04509013545726766</v>
+        <v>0.04726091442046448</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>72</v>
+      </c>
+      <c r="J63" t="n">
+        <v>146</v>
+      </c>
+      <c r="K63" t="n">
+        <v>128.3035615761156</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5366000613.36602</v>
+        <v>3917807128.500009</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1629931760174163</v>
+        <v>0.1895195733113368</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02585192063877569</v>
+        <v>0.02303960642403036</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>73</v>
+      </c>
+      <c r="J64" t="n">
+        <v>146</v>
+      </c>
+      <c r="K64" t="n">
+        <v>133.8363926318076</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4114799585.619975</v>
+        <v>5386783117.462245</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1213644454272855</v>
+        <v>0.1630438171328507</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02601903561300417</v>
+        <v>0.02526152588094711</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>122</v>
+      </c>
+      <c r="J65" t="n">
+        <v>147</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4253323642.064099</v>
+        <v>5162467027.427179</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1343267921530526</v>
+        <v>0.150149732740246</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03329350478111726</v>
+        <v>0.03193028542959776</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>72</v>
+      </c>
+      <c r="J66" t="n">
+        <v>147</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3188737598.095311</v>
+        <v>3085296496.900514</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08111121373879322</v>
+        <v>0.08848077368111279</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03532725261216296</v>
+        <v>0.04544522537798212</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5553936603.063483</v>
+        <v>3938010988.363007</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1274010062217737</v>
+        <v>0.1140699681982871</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03518636880906253</v>
+        <v>0.05128993017095989</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>74</v>
+      </c>
+      <c r="J68" t="n">
+        <v>146</v>
+      </c>
+      <c r="K68" t="n">
+        <v>131.9529696320435</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1553320461.079839</v>
+        <v>1619494980.787498</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1601326936571563</v>
+        <v>0.1677878039527437</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04915161852105716</v>
+        <v>0.03665134582665337</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2938634466.842882</v>
+        <v>2932516824.055725</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07455209173652108</v>
+        <v>0.08189295270301657</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03476755063933828</v>
+        <v>0.04105127552822162</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20</v>
+      </c>
+      <c r="J70" t="n">
+        <v>146</v>
+      </c>
+      <c r="K70" t="n">
+        <v>73.72317405438952</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3632563240.064003</v>
+        <v>4914556627.438525</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1432075866843426</v>
+        <v>0.1493079570672808</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03158721558324609</v>
+        <v>0.03308296472696388</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>117</v>
+      </c>
+      <c r="J71" t="n">
+        <v>147</v>
+      </c>
+      <c r="K71" t="n">
+        <v>142.1562081934051</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1893470093.135084</v>
+        <v>2014217589.838673</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09462852879568737</v>
+        <v>0.06954642477772945</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04522937046061023</v>
+        <v>0.04854439198497235</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2808914146.679332</v>
+        <v>3056029823.585946</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08841318685264105</v>
+        <v>0.06954556548398669</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05111301293511024</v>
+        <v>0.03326698804685554</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2420624368.230565</v>
+        <v>3174247998.193168</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1646830297400975</v>
+        <v>0.1669048693604816</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0261430227521716</v>
+        <v>0.02143564481530876</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>46</v>
+      </c>
+      <c r="J74" t="n">
+        <v>142</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1877594377.946295</v>
+        <v>1734380858.118971</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1130146152234056</v>
+        <v>0.1322536972190587</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03440724866086891</v>
+        <v>0.03139119187734526</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5024234086.305099</v>
+        <v>4663422519.889452</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09160772424811267</v>
+        <v>0.08064296303423481</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03410376813283889</v>
+        <v>0.02774503816108783</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>67</v>
+      </c>
+      <c r="J76" t="n">
+        <v>147</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1432180024.376182</v>
+        <v>2208090916.020687</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1321152344925344</v>
+        <v>0.1523616027067036</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02475047334137481</v>
+        <v>0.03139282515035906</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4433006283.615103</v>
+        <v>3959699627.535637</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1083011307690547</v>
+        <v>0.1062058435283693</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04307304817158168</v>
+        <v>0.0475518414272386</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>73</v>
+      </c>
+      <c r="J78" t="n">
+        <v>147</v>
+      </c>
+      <c r="K78" t="n">
+        <v>144.6336394039811</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1221198311.525663</v>
+        <v>1685194790.308823</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1514073386004778</v>
+        <v>0.1311294146889114</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03246333055176524</v>
+        <v>0.03426561658542302</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4875573099.603471</v>
+        <v>4367774047.360665</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1115521303153588</v>
+        <v>0.1002275969976755</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02477756170299051</v>
+        <v>0.0386753716978484</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>71</v>
+      </c>
+      <c r="J80" t="n">
+        <v>147</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4249684988.964792</v>
+        <v>4066190959.801322</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09734485269297524</v>
+        <v>0.1167637847885276</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02260467567105439</v>
+        <v>0.03166801269475004</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>67</v>
+      </c>
+      <c r="J81" t="n">
+        <v>147</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3915370408.935292</v>
+        <v>3686141479.345778</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2129280686221478</v>
+        <v>0.2129872272765735</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01929093775300967</v>
+        <v>0.02290540435683597</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>106</v>
+      </c>
+      <c r="J82" t="n">
+        <v>146</v>
+      </c>
+      <c r="K82" t="n">
+        <v>132.9615515070876</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1973070896.115335</v>
+        <v>2309127211.933298</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1103626040574932</v>
+        <v>0.1235818515502765</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04336318992924334</v>
+        <v>0.02955339922287221</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1819586228.038234</v>
+        <v>1986406495.605473</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07790677534949215</v>
+        <v>0.1163740550311196</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03380620003488466</v>
+        <v>0.0470665827092959</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3552266156.233794</v>
+        <v>3351253884.480671</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1380675599019734</v>
+        <v>0.1853496607848577</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05270382614644748</v>
+        <v>0.04571808830451421</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2188783261.704067</v>
+        <v>2501546029.949697</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1470500313354</v>
+        <v>0.154054188070244</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02659456582096396</v>
+        <v>0.01972791348435084</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1076883327.237623</v>
+        <v>943732260.0414875</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1379974861808186</v>
+        <v>0.1261772634563434</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04169320709104431</v>
+        <v>0.04451117213560774</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2472487146.40002</v>
+        <v>2536941747.360067</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1578189225951262</v>
+        <v>0.1161175365580064</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02465379732900476</v>
+        <v>0.03628727176225639</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3576,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2331382371.768206</v>
+        <v>2402237428.010952</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1231931915123424</v>
+        <v>0.1435370718127894</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03674587205939862</v>
+        <v>0.03625929801614174</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>12</v>
+      </c>
+      <c r="J89" t="n">
+        <v>146</v>
+      </c>
+      <c r="K89" t="n">
+        <v>54.69976317837141</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1483903636.955581</v>
+        <v>2120756493.283516</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1087886841272151</v>
+        <v>0.1076573605891454</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04216281931596433</v>
+        <v>0.03905805380333682</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1922283570.319407</v>
+        <v>1954480168.915443</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1951127021801029</v>
+        <v>0.1440480768241034</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03810018563986455</v>
+        <v>0.05867107787720511</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2148367898.160539</v>
+        <v>2548365737.71283</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07686190876533046</v>
+        <v>0.09212938734096855</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04394991872409613</v>
+        <v>0.03190972801711435</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3599095111.783031</v>
+        <v>3358369869.191013</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1141757358838733</v>
+        <v>0.1286901731704004</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03568984237882785</v>
+        <v>0.03877333822293537</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>66</v>
+      </c>
+      <c r="J93" t="n">
+        <v>145</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1583342693.93056</v>
+        <v>1711067059.848651</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1137411916707682</v>
+        <v>0.1198819410957617</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04260855060035289</v>
+        <v>0.04076235764713569</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2776987773.637559</v>
+        <v>3013184729.932387</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1197118606890323</v>
+        <v>0.1132145018598332</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04506344575373326</v>
+        <v>0.04357206762983336</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1777064388.939054</v>
+        <v>1671965200.48491</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1387709277913582</v>
+        <v>0.09184378341262854</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04422061505353069</v>
+        <v>0.0376772094091028</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3553760520.822496</v>
+        <v>4000567474.471028</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1704242411679275</v>
+        <v>0.1572977685963283</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02091971896992513</v>
+        <v>0.02326002836254341</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>70</v>
+      </c>
+      <c r="J97" t="n">
+        <v>147</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3490412145.689478</v>
+        <v>2392712926.734248</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09402955704007808</v>
+        <v>0.08593828871526074</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02362279408239368</v>
+        <v>0.0241739718022231</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>34</v>
+      </c>
+      <c r="J98" t="n">
+        <v>145</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2295714855.65137</v>
+        <v>3351221261.959507</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1336810412302749</v>
+        <v>0.0987041431809461</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03512010911804619</v>
+        <v>0.03077323780673784</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3965060065.206368</v>
+        <v>3996231111.05139</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1482709564456485</v>
+        <v>0.153996988319395</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02633855432921597</v>
+        <v>0.02576189750607814</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>61</v>
+      </c>
+      <c r="J100" t="n">
+        <v>146</v>
+      </c>
+      <c r="K100" t="n">
+        <v>129.6996553997978</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2574806003.173306</v>
+        <v>2747639311.095833</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2105709842469683</v>
+        <v>0.1679058145057744</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05628948189336028</v>
+        <v>0.05220627125299306</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>11</v>
+      </c>
+      <c r="J101" t="n">
+        <v>145</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
